--- a/CodeSystem-dose-rate-type.xlsx
+++ b/CodeSystem-dose-rate-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -99,7 +99,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/dose-rate-type|1.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/dose-rate-type</t>
   </si>
   <si>
     <t>Hierarchy</t>

--- a/CodeSystem-dose-rate-type.xlsx
+++ b/CodeSystem-dose-rate-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-snapshot-3</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -99,7 +99,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/dose-rate-type</t>
+    <t>http://terminology.hl7.org/ValueSet/dose-rate-type|1.0.0</t>
   </si>
   <si>
     <t>Hierarchy</t>
